--- a/EDGI_exercise_scoresheet.xlsx
+++ b/EDGI_exercise_scoresheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Dropbox/Wisconsin/Papers (External)/EDGI Exercise/Analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A4660F-53E3-514B-9D5B-9D70A2A0FC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880B5BAE-A297-674D-AC30-B7B78C3F74BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="760" windowWidth="25800" windowHeight="14560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4700" yWindow="760" windowWidth="25800" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ED100k" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2630" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="599">
   <si>
     <t>raw_vars</t>
   </si>
@@ -1821,6 +1821,18 @@
   </si>
   <si>
     <t>as.numeric(edeq15)</t>
+  </si>
+  <si>
+    <t>ED100k_gender_dummy</t>
+  </si>
+  <si>
+    <t>Gender coded as Man (0), Woman (1), or Nonbinary/two-spirit (2)</t>
+  </si>
+  <si>
+    <t>Man = 0, Woman = 1, Nonbinary = 2</t>
+  </si>
+  <si>
+    <t>gender == 1 ~ 0, gender == 2 ~ 1, gender == 3 ~2, gender == 4 ~ 2</t>
   </si>
 </sst>
 </file>
@@ -2918,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K133"/>
+  <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="125" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="C82" zoomScale="149" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5950,49 +5962,49 @@
       </c>
     </row>
     <row r="87" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
-        <v>53</v>
+      <c r="A87" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>388</v>
+        <v>595</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>109</v>
+        <v>596</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>269</v>
+        <v>333</v>
       </c>
       <c r="E87" s="9">
         <v>3</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>11</v>
+        <v>597</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="I87" s="9">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>391</v>
+        <v>11</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>11</v>
+        <v>598</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>269</v>
@@ -6007,13 +6019,13 @@
         <v>11</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>377</v>
+        <v>518</v>
       </c>
       <c r="I88" s="9">
         <v>0</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K88" s="9" t="s">
         <v>11</v>
@@ -6021,34 +6033,34 @@
     </row>
     <row r="89" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>380</v>
+        <v>56</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="E89" s="9">
-        <v>4</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>552</v>
+        <v>3</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>565</v>
+        <v>11</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89" s="9" t="s">
-        <v>11</v>
+        <v>377</v>
+      </c>
+      <c r="I89" s="9">
+        <v>0</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>11</v>
+        <v>384</v>
       </c>
       <c r="K89" s="9" t="s">
         <v>11</v>
@@ -6056,13 +6068,13 @@
     </row>
     <row r="90" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="D90" s="9" t="s">
         <v>14</v>
@@ -6071,10 +6083,10 @@
         <v>4</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>11</v>
@@ -6089,15 +6101,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>328</v>
+        <v>392</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>336</v>
+        <v>394</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D91" s="9" t="s">
         <v>14</v>
@@ -6105,11 +6117,11 @@
       <c r="E91" s="9">
         <v>4</v>
       </c>
-      <c r="F91" s="9" t="s">
-        <v>550</v>
+      <c r="F91" s="7" t="s">
+        <v>553</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>11</v>
@@ -6124,15 +6136,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" s="9" t="s">
         <v>14</v>
@@ -6141,7 +6153,7 @@
         <v>4</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G92" s="9" t="s">
         <v>567</v>
@@ -6159,15 +6171,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>14</v>
@@ -6175,11 +6187,11 @@
       <c r="E93" s="9">
         <v>4</v>
       </c>
-      <c r="F93" s="7" t="s">
-        <v>558</v>
+      <c r="F93" s="9" t="s">
+        <v>555</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H93" s="9" t="s">
         <v>11</v>
@@ -6194,15 +6206,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D94" s="9" t="s">
         <v>14</v>
@@ -6211,10 +6223,10 @@
         <v>4</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>11</v>
@@ -6229,15 +6241,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D95" s="9" t="s">
         <v>14</v>
@@ -6246,10 +6258,10 @@
         <v>4</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="H95" s="9" t="s">
         <v>11</v>
@@ -6266,13 +6278,13 @@
     </row>
     <row r="96" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D96" s="9" t="s">
         <v>14</v>
@@ -6281,103 +6293,103 @@
         <v>4</v>
       </c>
       <c r="F96" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G96" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="H96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="9">
+        <v>4</v>
+      </c>
+      <c r="F97" s="7" t="s">
         <v>561</v>
       </c>
-      <c r="G96" s="9" t="s">
+      <c r="G97" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="H96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A97" s="9" t="s">
+      <c r="H97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B98" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C98" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D98" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="E97" s="9">
+      <c r="E98" s="9">
         <v>5</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="F98" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="G97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="9" t="s">
+      <c r="G98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K98" s="9" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="9" t="s">
+    <row r="99" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B99" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>342</v>
-      </c>
-      <c r="D98" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="E98" s="9">
-        <v>6</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="I98" s="9">
-        <v>0</v>
-      </c>
-      <c r="J98" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="K98" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" ht="34" x14ac:dyDescent="0.2">
-      <c r="A99" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="D99" s="9" t="s">
         <v>269</v>
@@ -6398,7 +6410,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K99" s="9" t="s">
         <v>11</v>
@@ -6406,13 +6418,13 @@
     </row>
     <row r="100" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>35</v>
+        <v>349</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D100" s="9" t="s">
         <v>269</v>
@@ -6433,7 +6445,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>290</v>
+        <v>574</v>
       </c>
       <c r="K100" s="9" t="s">
         <v>11</v>
@@ -6441,13 +6453,13 @@
     </row>
     <row r="101" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>269</v>
@@ -6468,7 +6480,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K101" s="9" t="s">
         <v>11</v>
@@ -6476,13 +6488,13 @@
     </row>
     <row r="102" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D102" s="9" t="s">
         <v>269</v>
@@ -6503,21 +6515,21 @@
         <v>0</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K102" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>588</v>
+        <v>331</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>586</v>
+        <v>91</v>
       </c>
       <c r="D103" s="9" t="s">
         <v>269</v>
@@ -6538,54 +6550,54 @@
         <v>0</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="K103" s="9"/>
-    </row>
-    <row r="104" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+      <c r="K103" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>330</v>
+        <v>36</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>370</v>
+        <v>588</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>93</v>
+        <v>586</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="E104" s="9">
         <v>6</v>
       </c>
-      <c r="F104" s="7" t="s">
-        <v>554</v>
+      <c r="F104" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>566</v>
+        <v>11</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I104" s="9" t="s">
-        <v>11</v>
+        <v>585</v>
+      </c>
+      <c r="I104" s="9">
+        <v>0</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>587</v>
+      </c>
+      <c r="K104" s="9"/>
+    </row>
+    <row r="105" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D105" s="9" t="s">
         <v>14</v>
@@ -6593,11 +6605,11 @@
       <c r="E105" s="9">
         <v>6</v>
       </c>
-      <c r="F105" s="9" t="s">
-        <v>556</v>
+      <c r="F105" s="7" t="s">
+        <v>554</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>11</v>
@@ -6612,15 +6624,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>14</v>
@@ -6629,10 +6641,10 @@
         <v>6</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="H106" s="9" t="s">
         <v>11</v>
@@ -6647,15 +6659,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D107" s="9" t="s">
         <v>14</v>
@@ -6664,7 +6676,7 @@
         <v>6</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="G107" s="9" t="s">
         <v>567</v>
@@ -6682,21 +6694,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E108" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F108" s="9" t="s">
         <v>550</v>
@@ -6717,27 +6729,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>342</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>311</v>
+        <v>14</v>
       </c>
       <c r="E109" s="9">
         <v>7</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>11</v>
+        <v>550</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>11</v>
+        <v>567</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>11</v>
@@ -6752,24 +6764,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>371</v>
+        <v>345</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="E110" s="9">
         <v>7</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>550</v>
+        <v>11</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>11</v>
@@ -6784,18 +6796,18 @@
         <v>11</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>333</v>
@@ -6819,27 +6831,27 @@
         <v>11</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>548</v>
+        <v>346</v>
       </c>
       <c r="D112" s="9" t="s">
         <v>333</v>
       </c>
       <c r="E112" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>11</v>
+        <v>550</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>11</v>
@@ -6854,18 +6866,18 @@
         <v>11</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>350</v>
+        <v>548</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>333</v>
@@ -6889,18 +6901,18 @@
         <v>11</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D114" s="9" t="s">
         <v>333</v>
@@ -6924,46 +6936,78 @@
         <v>11</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>29</v>
+        <v>360</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>581</v>
+        <v>359</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>14</v>
+        <v>333</v>
       </c>
       <c r="E115" s="9">
         <v>8</v>
       </c>
       <c r="F115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J115" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E116" s="9">
+        <v>8</v>
+      </c>
+      <c r="F116" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="G116" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="H115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" ht="16" x14ac:dyDescent="0.2">
-      <c r="B128" s="9"/>
+      <c r="H116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="9" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="129" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B129" s="9"/>
@@ -6980,9 +7024,12 @@
     <row r="133" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B133" s="9"/>
     </row>
+    <row r="134" spans="2:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="B134" s="9"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K134">
-    <sortCondition ref="E2:E134"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K135">
+    <sortCondition ref="E2:E135"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10086,7 +10133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F526704-404D-A742-B160-DD024D64BBA1}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A50" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>

--- a/EDGI_exercise_scoresheet.xlsx
+++ b/EDGI_exercise_scoresheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kschaumberg/Dropbox/Wisconsin/Papers (External)/EDGI Exercise/Analyses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880B5BAE-A297-674D-AC30-B7B78C3F74BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9670073-7460-1643-952A-E853CF3AC131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="760" windowWidth="25800" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="760" windowWidth="25800" windowHeight="14560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ED100k" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2660" uniqueCount="606">
   <si>
     <t>raw_vars</t>
   </si>
@@ -1094,9 +1094,6 @@
     <t xml:space="preserve">Reports exercised excessively (compulsively) in a way that was 'more often/became a habit' OR any exercise that is compensatory </t>
   </si>
   <si>
-    <t>reports driven exercise for at least one month OR any compensatory exercise</t>
-  </si>
-  <si>
     <t>Compulsive/Driven Exercise that lasted for at least one month</t>
   </si>
   <si>
@@ -1115,9 +1112,6 @@
     <t>ED100k_ex_maladaptive_any</t>
   </si>
   <si>
-    <t>ED100k_ex_maladaptive_1mo</t>
-  </si>
-  <si>
     <t>ED100k_ex_compulsive_1mo, ED100k_ex_compensatory</t>
   </si>
   <si>
@@ -1139,9 +1133,6 @@
     <t>ED100k_ex_compulsive_1mo</t>
   </si>
   <si>
-    <t>ED100k_ex_compulsive_1mo == 0 ~ 0, ED100k_ex_compensatory == 0 ~ 0, ED100k_ex_compulsive_1mo == 1 | ED100k_ex_compensatory ==1 ~ 1</t>
-  </si>
-  <si>
     <t>ED100k_ex_compulsive_1mo, ED100k_ex_interfere</t>
   </si>
   <si>
@@ -1601,9 +1592,6 @@
     <t>ED100k_exercise_icb == 0 ~ 0, ED100k_ex_compensatory == 0 ~ 0 , ED100k_exercise_icb== 1 | ED100k_ex_compensatory == 1 ~ 1</t>
   </si>
   <si>
-    <t>ED100k_ex_compulsive_1mo == 1 &amp; ED100k_ex_interfere == 1 ~ 1, ED100k_ex_compulsive_1mo == 0 ~ 0, ED100k_ex_interfere == 0 ~ 0</t>
-  </si>
-  <si>
     <t>cet_2_appearance</t>
   </si>
   <si>
@@ -1703,9 +1691,6 @@
     <t>No compulsive exercise = 0, Less than 1 month = 1, 1 to 2 months = 2,  3 to 5 months = 3, 6-12 months = 4,  More than 1 year =5</t>
   </si>
   <si>
-    <t>No. =0, Yes = 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">No compulsive exercise = 0, Less than once a week = 1 , At least once a week = 2 , At least twice a week = 3 , Every day/ nearly every day = 4 </t>
   </si>
   <si>
@@ -1833,6 +1818,42 @@
   </si>
   <si>
     <t>gender == 1 ~ 0, gender == 2 ~ 1, gender == 3 ~2, gender == 4 ~ 2</t>
+  </si>
+  <si>
+    <t>No =0, Yes = 1</t>
+  </si>
+  <si>
+    <t>Compulsive/Driven Exercise With Regular (more often) criteria</t>
+  </si>
+  <si>
+    <t>ED100k_ex_compulsive, ED100k_exercise_icb</t>
+  </si>
+  <si>
+    <t>ED100k_ex_compulsive_strict</t>
+  </si>
+  <si>
+    <t>ED100k_exercise_icb &lt; 2 | ex_compel_2  + ex_distress_2 == 0 ~ 0, ED100k_exercise_icb == 2 &amp; ex_compel_2 == 1  | ED100k_exercise_icb == 2 &amp; ex_distress_2 == 1 ~ 1</t>
+  </si>
+  <si>
+    <t>ED100k_ex_compulsive_strict_3mo</t>
+  </si>
+  <si>
+    <t>ED100k_ex_compulsive_strict == 1 &amp; ED100k_ex_dur &lt;= 2 | ED100k_ex_compulsive_strict == 0 ~ 0, ED100k_ex_compulsive_strict == 1 &amp; ED100k_ex_dur &gt; 2 ~ 1</t>
+  </si>
+  <si>
+    <t>Compulsive/Driven Exercise that lasted for at least three months and weight/shape exercise endorsed 'more often'</t>
+  </si>
+  <si>
+    <t>ED100k_ex_compulsive_strict_3mo == 0 | ED100k_ex_interfere == 0 ~ 0, ED100k_ex_compulsive_strict_3mo == 1 &amp; ED100k_ex_interfere == 1 ~ 1</t>
+  </si>
+  <si>
+    <t>reports regular driven exercise for at least 3 months OR any compensatory exercise</t>
+  </si>
+  <si>
+    <t>ED100k_ex_compulsive_strict_3mo == 0 ~ 0, ED100k_ex_compensatory == 0 ~ 0, ED100k_ex_compulsive_strict_3mo == 1 | ED100k_ex_compensatory ==1 ~ 1</t>
+  </si>
+  <si>
+    <t>ED100k_ex_maladaptive</t>
   </si>
 </sst>
 </file>
@@ -2634,7 +2655,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2922,7 +2943,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2930,10 +2951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K134"/>
+  <dimension ref="A1:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" zoomScale="149" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K87" sqref="K87"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="149" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3057,7 +3078,7 @@
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>11</v>
@@ -3267,7 +3288,7 @@
     </row>
     <row r="10" spans="1:11" s="15" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>11</v>
@@ -5333,10 +5354,10 @@
     </row>
     <row r="69" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>96</v>
@@ -5348,10 +5369,10 @@
         <v>2</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G69" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="H69" s="9" t="s">
         <v>11</v>
@@ -5383,10 +5404,10 @@
         <v>2</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H70" s="9" t="s">
         <v>11</v>
@@ -5418,10 +5439,10 @@
         <v>2</v>
       </c>
       <c r="F71" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H71" s="9" t="s">
         <v>11</v>
@@ -5453,10 +5474,10 @@
         <v>2</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H72" s="9" t="s">
         <v>11</v>
@@ -5488,10 +5509,10 @@
         <v>2</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H73" s="9" t="s">
         <v>11</v>
@@ -5523,10 +5544,10 @@
         <v>2</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H74" s="9" t="s">
         <v>11</v>
@@ -5558,10 +5579,10 @@
         <v>2</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="H75" s="9" t="s">
         <v>11</v>
@@ -5593,10 +5614,10 @@
         <v>2</v>
       </c>
       <c r="F76" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="H76" s="9" t="s">
         <v>11</v>
@@ -5616,7 +5637,7 @@
         <v>43</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>101</v>
@@ -5628,10 +5649,10 @@
         <v>2</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H77" s="9" t="s">
         <v>11</v>
@@ -5651,7 +5672,7 @@
         <v>59</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>117</v>
@@ -5669,13 +5690,13 @@
         <v>11</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I78" s="9">
         <v>0</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K78" s="9" t="s">
         <v>11</v>
@@ -5686,7 +5707,7 @@
         <v>42</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>100</v>
@@ -5704,13 +5725,13 @@
         <v>11</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I79" s="9">
         <v>0</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K79" s="9" t="s">
         <v>11</v>
@@ -5718,10 +5739,10 @@
     </row>
     <row r="80" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>351</v>
@@ -5748,7 +5769,7 @@
         <v>11</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5826,7 +5847,7 @@
         <v>62</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>120</v>
@@ -5844,13 +5865,13 @@
         <v>11</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="I83" s="9">
         <v>0</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K83" s="9" t="s">
         <v>11</v>
@@ -5861,7 +5882,7 @@
         <v>54</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>111</v>
@@ -5879,13 +5900,13 @@
         <v>11</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I84" s="9">
         <v>0</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K84" s="9" t="s">
         <v>11</v>
@@ -5899,7 +5920,7 @@
         <v>272</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>333</v>
@@ -5908,7 +5929,7 @@
         <v>3</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G85" s="9" t="s">
         <v>11</v>
@@ -5923,7 +5944,7 @@
         <v>11</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5934,7 +5955,7 @@
         <v>273</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>333</v>
@@ -5943,7 +5964,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G86" s="9" t="s">
         <v>11</v>
@@ -5958,7 +5979,7 @@
         <v>11</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -5966,10 +5987,10 @@
         <v>17</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D87" s="9" t="s">
         <v>333</v>
@@ -5978,7 +5999,7 @@
         <v>3</v>
       </c>
       <c r="F87" s="9" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G87" s="9" t="s">
         <v>11</v>
@@ -5993,7 +6014,7 @@
         <v>11</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6001,7 +6022,7 @@
         <v>53</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>109</v>
@@ -6019,13 +6040,13 @@
         <v>11</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="I88" s="9">
         <v>0</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="K88" s="9" t="s">
         <v>11</v>
@@ -6036,7 +6057,7 @@
         <v>56</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>114</v>
@@ -6054,13 +6075,13 @@
         <v>11</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="I89" s="9">
         <v>0</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="K89" s="9" t="s">
         <v>11</v>
@@ -6068,10 +6089,10 @@
     </row>
     <row r="90" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>117</v>
@@ -6083,10 +6104,10 @@
         <v>4</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H90" s="9" t="s">
         <v>11</v>
@@ -6103,10 +6124,10 @@
     </row>
     <row r="91" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>100</v>
@@ -6118,10 +6139,10 @@
         <v>4</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="H91" s="9" t="s">
         <v>11</v>
@@ -6153,10 +6174,10 @@
         <v>4</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H92" s="9" t="s">
         <v>11</v>
@@ -6188,10 +6209,10 @@
         <v>4</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>555</v>
+        <v>594</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H93" s="9" t="s">
         <v>11</v>
@@ -6208,10 +6229,10 @@
     </row>
     <row r="94" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>120</v>
@@ -6223,10 +6244,10 @@
         <v>4</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="H94" s="9" t="s">
         <v>11</v>
@@ -6243,10 +6264,10 @@
     </row>
     <row r="95" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>111</v>
@@ -6258,10 +6279,10 @@
         <v>4</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="H95" s="9" t="s">
         <v>11</v>
@@ -6278,10 +6299,10 @@
     </row>
     <row r="96" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>109</v>
@@ -6293,10 +6314,10 @@
         <v>4</v>
       </c>
       <c r="F96" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G96" s="9" t="s">
         <v>560</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>565</v>
       </c>
       <c r="H96" s="9" t="s">
         <v>11</v>
@@ -6313,10 +6334,10 @@
     </row>
     <row r="97" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>114</v>
@@ -6328,10 +6349,10 @@
         <v>4</v>
       </c>
       <c r="F97" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="G97" s="9" t="s">
         <v>561</v>
-      </c>
-      <c r="G97" s="9" t="s">
-        <v>566</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>11</v>
@@ -6351,7 +6372,7 @@
         <v>340</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>334</v>
@@ -6363,7 +6384,7 @@
         <v>5</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>11</v>
@@ -6378,7 +6399,7 @@
         <v>11</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -6404,13 +6425,13 @@
         <v>11</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I99" s="9">
         <v>0</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="K99" s="9" t="s">
         <v>11</v>
@@ -6439,13 +6460,13 @@
         <v>11</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I100" s="9">
         <v>0</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="K100" s="9" t="s">
         <v>11</v>
@@ -6474,7 +6495,7 @@
         <v>11</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I101" s="9">
         <v>0</v>
@@ -6509,7 +6530,7 @@
         <v>11</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I102" s="9">
         <v>0</v>
@@ -6544,7 +6565,7 @@
         <v>11</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I103" s="9">
         <v>0</v>
@@ -6561,10 +6582,10 @@
         <v>36</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D104" s="9" t="s">
         <v>269</v>
@@ -6579,13 +6600,13 @@
         <v>11</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="I104" s="9">
         <v>0</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="K104" s="9"/>
     </row>
@@ -6594,7 +6615,7 @@
         <v>330</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>93</v>
@@ -6606,10 +6627,10 @@
         <v>6</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>11</v>
@@ -6629,7 +6650,7 @@
         <v>332</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>94</v>
@@ -6641,10 +6662,10 @@
         <v>6</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H106" s="9" t="s">
         <v>11</v>
@@ -6676,10 +6697,10 @@
         <v>6</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H107" s="9" t="s">
         <v>11</v>
@@ -6711,10 +6732,10 @@
         <v>6</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>11</v>
@@ -6746,10 +6767,10 @@
         <v>7</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>11</v>
@@ -6769,7 +6790,7 @@
         <v>345</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>348</v>
@@ -6801,13 +6822,13 @@
     </row>
     <row r="111" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>333</v>
@@ -6816,7 +6837,7 @@
         <v>7</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G111" s="9" t="s">
         <v>11</v>
@@ -6831,7 +6852,7 @@
         <v>11</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -6839,7 +6860,7 @@
         <v>345</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>346</v>
@@ -6851,7 +6872,7 @@
         <v>7</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>11</v>
@@ -6869,15 +6890,15 @@
         <v>347</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>548</v>
+        <v>350</v>
       </c>
       <c r="D113" s="9" t="s">
         <v>333</v>
@@ -6901,30 +6922,30 @@
         <v>11</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>372</v>
+        <v>29</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>350</v>
+        <v>575</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>576</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>333</v>
+        <v>14</v>
       </c>
       <c r="E114" s="9">
         <v>8</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>11</v>
+        <v>546</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>11</v>
+        <v>577</v>
       </c>
       <c r="H114" s="9" t="s">
         <v>11</v>
@@ -6936,18 +6957,18 @@
         <v>11</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>360</v>
+        <v>596</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>359</v>
+        <v>597</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>352</v>
+        <v>595</v>
       </c>
       <c r="D115" s="9" t="s">
         <v>333</v>
@@ -6956,7 +6977,7 @@
         <v>8</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>11</v>
+        <v>546</v>
       </c>
       <c r="G115" s="9" t="s">
         <v>11</v>
@@ -6971,30 +6992,30 @@
         <v>11</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>29</v>
+        <v>368</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="C116" s="9" t="s">
-        <v>581</v>
+        <v>599</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>601</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>14</v>
+        <v>333</v>
       </c>
       <c r="E116" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>582</v>
+        <v>11</v>
       </c>
       <c r="H116" s="9" t="s">
         <v>11</v>
@@ -7006,8 +7027,84 @@
         <v>11</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E117" s="9">
+        <v>10</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E118" s="9">
+        <v>10</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B127" s="9"/>
+    </row>
+    <row r="128" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B128" s="9"/>
     </row>
     <row r="129" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B129" s="9"/>
@@ -7021,15 +7118,9 @@
     <row r="132" spans="2:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B132" s="9"/>
     </row>
-    <row r="133" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B133" s="9"/>
-    </row>
-    <row r="134" spans="2:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="B134" s="9"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K135">
-    <sortCondition ref="E2:E135"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K133">
+    <sortCondition ref="E2:E133"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7083,13 +7174,13 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -7098,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -7118,13 +7209,13 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -7133,7 +7224,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -7153,13 +7244,13 @@
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -7168,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -7188,13 +7279,13 @@
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -7203,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -7223,13 +7314,13 @@
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -7238,7 +7329,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -7258,13 +7349,13 @@
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -7273,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -7293,13 +7384,13 @@
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -7308,7 +7399,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -7328,13 +7419,13 @@
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -7343,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -7363,13 +7454,13 @@
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -7378,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -7398,13 +7489,13 @@
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -7413,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -7433,13 +7524,13 @@
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -7448,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -7468,13 +7559,13 @@
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -7483,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -7503,13 +7594,13 @@
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -7518,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -7538,13 +7629,13 @@
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -7553,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -7573,13 +7664,13 @@
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -7588,7 +7679,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -7608,13 +7699,13 @@
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
@@ -7623,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G17" t="s">
         <v>11</v>
@@ -7643,13 +7734,13 @@
     </row>
     <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -7658,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G18" t="s">
         <v>11</v>
@@ -7678,13 +7769,13 @@
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -7693,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G19" t="s">
         <v>11</v>
@@ -7713,13 +7804,13 @@
     </row>
     <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -7728,7 +7819,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G20" t="s">
         <v>11</v>
@@ -7748,13 +7839,13 @@
     </row>
     <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="25" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
@@ -7783,13 +7874,13 @@
     </row>
     <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
@@ -7907,13 +7998,13 @@
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -7922,7 +8013,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -7942,13 +8033,13 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -7957,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -7977,13 +8068,13 @@
     </row>
     <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -7992,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -8012,13 +8103,13 @@
     </row>
     <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -8027,7 +8118,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -8047,13 +8138,13 @@
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -8062,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -8082,13 +8173,13 @@
     </row>
     <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -8097,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -8117,13 +8208,13 @@
     </row>
     <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -8132,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -8152,13 +8243,13 @@
     </row>
     <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -8167,7 +8258,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G9" t="s">
         <v>11</v>
@@ -8187,13 +8278,13 @@
     </row>
     <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="25" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -8202,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -8222,13 +8313,13 @@
     </row>
     <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="25" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -8237,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -8257,13 +8348,13 @@
     </row>
     <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="25" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -8272,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
@@ -8292,13 +8383,13 @@
     </row>
     <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
@@ -8307,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
@@ -8327,13 +8418,13 @@
     </row>
     <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="25" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -8342,7 +8433,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G14" t="s">
         <v>11</v>
@@ -8362,13 +8453,13 @@
     </row>
     <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -8397,13 +8488,13 @@
     </row>
     <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -8432,13 +8523,13 @@
     </row>
     <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="25" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -8503,13 +8594,13 @@
     </row>
     <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B19" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D19" t="s">
         <v>311</v>
@@ -9610,7 +9701,7 @@
     </row>
     <row r="31" spans="1:11" s="19" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="22" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>11</v>
@@ -9645,16 +9736,16 @@
     </row>
     <row r="32" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B32" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -9680,16 +9771,16 @@
     </row>
     <row r="33" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B33" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D33" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -9715,16 +9806,16 @@
     </row>
     <row r="34" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B34" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D34" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -9750,16 +9841,16 @@
     </row>
     <row r="35" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B35" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D35" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -9788,7 +9879,7 @@
         <v>136</v>
       </c>
       <c r="B36" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>165</v>
@@ -9806,13 +9897,13 @@
         <v>11</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="I36" s="2">
         <v>0</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>11</v>
@@ -9823,7 +9914,7 @@
         <v>137</v>
       </c>
       <c r="B37" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>166</v>
@@ -9858,7 +9949,7 @@
         <v>138</v>
       </c>
       <c r="B38" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>167</v>
@@ -9893,7 +9984,7 @@
         <v>139</v>
       </c>
       <c r="B39" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>168</v>
@@ -9928,7 +10019,7 @@
         <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>152</v>
@@ -9940,7 +10031,7 @@
         <v>3</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>11</v>
@@ -9960,13 +10051,13 @@
     </row>
     <row r="41" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B41" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D41" t="s">
         <v>269</v>
@@ -9978,13 +10069,13 @@
         <v>11</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>11</v>
@@ -9992,13 +10083,13 @@
     </row>
     <row r="42" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B42" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D42" t="s">
         <v>269</v>
@@ -10010,13 +10101,13 @@
         <v>11</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>11</v>
@@ -10024,13 +10115,13 @@
     </row>
     <row r="43" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B43" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D43" t="s">
         <v>269</v>
@@ -10042,13 +10133,13 @@
         <v>11</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>11</v>
@@ -10056,13 +10147,13 @@
     </row>
     <row r="44" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B44" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D44" t="s">
         <v>269</v>
@@ -10074,13 +10165,13 @@
         <v>11</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="K44" s="2" t="s">
         <v>11</v>
@@ -10088,16 +10179,16 @@
     </row>
     <row r="45" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B45" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D45" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -11131,7 +11222,7 @@
         <v>185</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>209</v>
@@ -11341,10 +11432,10 @@
         <v>191</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>14</v>
@@ -11353,7 +11444,7 @@
         <v>2</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>312</v>
@@ -11484,7 +11575,7 @@
         <v>300</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>14</v>
@@ -11493,7 +11584,7 @@
         <v>2</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>312</v>
@@ -11586,7 +11677,7 @@
         <v>198</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C42" s="12" t="s">
         <v>222</v>
@@ -11796,7 +11887,7 @@
         <v>204</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>228</v>
@@ -11901,7 +11992,7 @@
         <v>207</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>231</v>
@@ -11933,16 +12024,16 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>314</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E52" s="5">
         <v>3</v>
@@ -11968,13 +12059,13 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>313</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>269</v>
@@ -11989,13 +12080,13 @@
         <v>11</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="K53" s="12" t="s">
         <v>11</v>
@@ -12003,16 +12094,16 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>316</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E54" s="5">
         <v>3</v>
@@ -12038,13 +12129,13 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>315</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>269</v>
@@ -12059,13 +12150,13 @@
         <v>11</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K55" s="12" t="s">
         <v>11</v>
@@ -12076,13 +12167,13 @@
         <v>317</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>319</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E56" s="5">
         <v>3</v>
@@ -12108,13 +12199,13 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>318</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>269</v>
@@ -12129,13 +12220,13 @@
         <v>11</v>
       </c>
       <c r="H57" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="I57" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="I57" s="12" t="s">
-        <v>530</v>
-      </c>
       <c r="J57" s="12" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K57" s="12" t="s">
         <v>11</v>
@@ -12146,13 +12237,13 @@
         <v>320</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>322</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E58" s="5">
         <v>3</v>
@@ -12178,13 +12269,13 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>321</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>269</v>
@@ -12199,13 +12290,13 @@
         <v>11</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K59" s="12" t="s">
         <v>11</v>
@@ -12216,13 +12307,13 @@
         <v>323</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>324</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E60" s="5">
         <v>3</v>
@@ -12248,13 +12339,13 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>327</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>269</v>
@@ -12269,13 +12360,13 @@
         <v>11</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="I61" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="J61" s="12" t="s">
         <v>530</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>534</v>
       </c>
       <c r="K61" s="12" t="s">
         <v>11</v>
@@ -12322,10 +12413,10 @@
         <v>325</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>333</v>
@@ -12334,7 +12425,7 @@
         <v>6</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>11</v>
@@ -12349,7 +12440,7 @@
         <v>11</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
